--- a/Resources/OrderData.xlsx
+++ b/Resources/OrderData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MACDATA/Repositories/Green-JDEV-D010/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Green-JDEV-D010\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D1FC3E-D227-4B4C-97F4-E49486D81FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EEB606-F19C-439D-9D3C-0A5C5FFDCAF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5560" windowWidth="28040" windowHeight="13900" xr2:uid="{D88E7D47-CF9A-F845-9E06-E53E89FD212D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D88E7D47-CF9A-F845-9E06-E53E89FD212D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>iPhone X 64Gb Grey</t>
   </si>
@@ -109,6 +109,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -148,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,315 +475,318 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:6" ht="18.600000000000001">
+      <c r="A2" s="2">
+        <v>200398</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>999</v>
+      </c>
+      <c r="F2" s="1">
         <v>43007.056944444441</v>
       </c>
-      <c r="B2" s="2">
-        <v>200398</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="18.600000000000001">
+      <c r="A3" s="2">
+        <v>200397</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43006.247916666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.600000000000001">
+      <c r="A4" s="2">
+        <v>200396</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43004.247916666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001">
+      <c r="A5" s="2">
+        <v>200392</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43003.962500000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001">
+      <c r="A6" s="2">
+        <v>200391</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43002.247916666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.600000000000001">
+      <c r="A7" s="2">
+        <v>200390</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43001.247916666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.600000000000001">
+      <c r="A8" s="2">
+        <v>200389</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43000.247916666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.600000000000001">
+      <c r="A9" s="4">
+        <v>200388</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42999.247916666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.600000000000001">
+      <c r="A10" s="2">
+        <v>200387</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19">
-      <c r="A3" s="1">
-        <v>43006.247916666667</v>
-      </c>
-      <c r="B3" s="2">
-        <v>200397</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19">
-      <c r="A4" s="1">
-        <v>43004.247916666667</v>
-      </c>
-      <c r="B4" s="2">
-        <v>200396</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42997.247916666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.600000000000001">
+      <c r="A11" s="2">
+        <v>200386</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42996.247916666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001">
+      <c r="A12" s="2">
+        <v>200389</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43000.247916666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.600000000000001">
+      <c r="A13" s="2">
+        <v>200388</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19">
-      <c r="A5" s="1">
-        <v>43003.962500000001</v>
-      </c>
-      <c r="B5" s="2">
-        <v>200392</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19">
-      <c r="A6" s="1">
-        <v>43002.247916666667</v>
-      </c>
-      <c r="B6" s="2">
-        <v>200391</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19">
-      <c r="A7" s="1">
-        <v>43001.247916666667</v>
-      </c>
-      <c r="B7" s="2">
-        <v>200390</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19">
-      <c r="A8" s="1">
-        <v>43000.247916666667</v>
-      </c>
-      <c r="B8" s="2">
-        <v>200389</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19">
-      <c r="A9" s="3">
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>42999.247916666667</v>
       </c>
-      <c r="B9" s="4">
-        <v>200388</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19">
-      <c r="A10" s="1">
+    </row>
+    <row r="14" spans="1:6" ht="18.600000000000001">
+      <c r="A14" s="2">
+        <v>200387</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>42997.247916666667</v>
       </c>
-      <c r="B10" s="2">
-        <v>200387</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="18.600000000000001">
+      <c r="A15" s="2">
+        <v>200386</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19">
-      <c r="A11" s="1">
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>42996.247916666667</v>
-      </c>
-      <c r="B11" s="2">
-        <v>200386</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19">
-      <c r="A12" s="1">
-        <v>43000.247916666667</v>
-      </c>
-      <c r="B12" s="2">
-        <v>200389</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19">
-      <c r="A13" s="1">
-        <v>42999.247916666667</v>
-      </c>
-      <c r="B13" s="2">
-        <v>200388</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19">
-      <c r="A14" s="1">
-        <v>42997.247916666667</v>
-      </c>
-      <c r="B14" s="2">
-        <v>200387</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19">
-      <c r="A15" s="1">
-        <v>42996.247916666667</v>
-      </c>
-      <c r="B15" s="2">
-        <v>200386</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>